--- a/ADP/AEN.xlsx
+++ b/ADP/AEN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Desktop\UAI-2024\ADP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922E67C9-9B5D-489C-A8E9-13A9482913D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E932599-5C08-4907-8D8D-3C31C39A7C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej2" sheetId="1" r:id="rId1"/>
@@ -296,6 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,7 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4931,31 +4931,31 @@
   <dimension ref="D1:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H2" s="2"/>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H3" s="5"/>
       <c r="I3" s="1"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="7" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
         <v>0</v>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
       <c r="F9" s="6"/>
@@ -4991,7 +4991,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -5005,24 +5005,24 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="13" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="L13" s="19" t="s">
+    <row r="13" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H14" s="2"/>
       <c r="I14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:22" x14ac:dyDescent="0.25">
       <c r="H15" s="5"/>
       <c r="I15" s="1"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="7"/>
       <c r="I16" s="8"/>
       <c r="J16" s="9"/>
@@ -5042,10 +5042,10 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
         <v>1</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="Q4" s="4"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
@@ -5073,7 +5073,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
       <c r="I6" s="9"/>
@@ -5084,20 +5084,20 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S8" s="2"/>
       <c r="T8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S9" s="5"/>
       <c r="T9" s="1"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>0</v>
@@ -5112,7 +5112,7 @@
       <c r="T10" s="8"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
       <c r="D11" s="6"/>
@@ -5120,7 +5120,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -5128,36 +5128,36 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K13" s="2"/>
       <c r="L13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="2:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K15" s="7"/>
       <c r="L15" s="8"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
       <c r="H16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
       <c r="H17" s="1"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="7:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="7:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="7"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
@@ -5176,25 +5176,25 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="4:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="4:22" x14ac:dyDescent="0.25">
       <c r="L7" s="2"/>
       <c r="M7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L8" s="5"/>
       <c r="M8" s="1"/>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="2"/>
       <c r="I9" s="3" t="s">
         <v>1</v>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="R9" s="4"/>
     </row>
-    <row r="10" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="6"/>
@@ -5217,7 +5217,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
@@ -5230,7 +5230,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="9"/>
     </row>
-    <row r="12" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L12" s="5"/>
       <c r="M12" s="1"/>
       <c r="N12" s="6"/>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="V12" s="4"/>
     </row>
-    <row r="13" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
         <v>0</v>
@@ -5253,7 +5253,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
       <c r="F14" s="6"/>
@@ -5261,7 +5261,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="7"/>
       <c r="E15" s="8"/>
       <c r="F15" s="9"/>
@@ -5271,12 +5271,12 @@
       </c>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="4:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P16" s="5"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="8:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="8:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H17" s="2"/>
       <c r="I17" s="3" t="s">
         <v>2</v>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="8:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="8:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="5"/>
       <c r="I18" s="1"/>
       <c r="J18" s="6"/>
@@ -5307,7 +5307,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="6"/>
     </row>
-    <row r="19" spans="8:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="8:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H19" s="7"/>
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
@@ -5323,12 +5323,12 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="9"/>
     </row>
-    <row r="20" spans="8:26" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:26" x14ac:dyDescent="0.25">
       <c r="P20" s="5"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="8:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="8:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
@@ -5347,22 +5347,22 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="9" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="2"/>
       <c r="H9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
       <c r="H11" s="3"/>
       <c r="I11" s="4"/>
@@ -5372,12 +5372,12 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K12" s="2"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -5392,7 +5392,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5"/>
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
@@ -5405,7 +5405,7 @@
       </c>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
@@ -5416,7 +5416,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="3:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O16" s="2"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="4"/>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="7:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
       <c r="H17" s="3" t="s">
         <v>2</v>
@@ -5449,7 +5449,7 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="7:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="6"/>
@@ -5468,7 +5468,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="4"/>
     </row>
-    <row r="19" spans="7:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="7"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
@@ -5479,7 +5479,7 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:25" x14ac:dyDescent="0.25">
       <c r="O20" s="2"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="4"/>
@@ -5498,15 +5498,15 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="9" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S9" s="2"/>
       <c r="T9" s="3" t="s">
         <v>5</v>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="Y9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S10" s="2"/>
       <c r="T10" s="3"/>
       <c r="U10" s="4"/>
@@ -5526,7 +5526,7 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G11" s="2"/>
       <c r="H11" s="3" t="s">
         <v>0</v>
@@ -5544,7 +5544,7 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
       <c r="H12" s="3"/>
       <c r="I12" s="4"/>
@@ -5557,7 +5557,7 @@
       </c>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
         <v>11</v>
@@ -5583,7 +5583,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
@@ -5597,7 +5597,7 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="Y15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G16" s="2"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4"/>
@@ -5634,7 +5634,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="4"/>
     </row>
-    <row r="17" spans="7:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4"/>
@@ -5650,12 +5650,12 @@
       <c r="X17" s="3"/>
       <c r="Y17" s="4"/>
     </row>
-    <row r="18" spans="7:25" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="7:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="7:25" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:25" x14ac:dyDescent="0.25">
       <c r="S19" s="2"/>
       <c r="T19" s="3"/>
       <c r="U19" s="4"/>
@@ -5674,10 +5674,10 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P7" s="2">
         <v>12</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -5712,7 +5712,7 @@
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
     </row>
-    <row r="9" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="W9" s="10"/>
     </row>
-    <row r="10" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -5784,14 +5784,14 @@
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="13"/>
-      <c r="W10" s="15" t="s">
+      <c r="W10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-    </row>
-    <row r="11" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="11">
         <v>0</v>
       </c>
@@ -5843,7 +5843,7 @@
       </c>
       <c r="W11" s="10"/>
     </row>
-    <row r="12" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="11">
         <v>0</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
     </row>
-    <row r="13" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="11">
         <v>0</v>
       </c>
@@ -5909,7 +5909,7 @@
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
     </row>
-    <row r="14" spans="4:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -5933,7 +5933,7 @@
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
     </row>
-    <row r="15" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -5961,7 +5961,7 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
     </row>
-    <row r="16" spans="4:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -5983,7 +5983,7 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -6022,9 +6022,9 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -6072,7 +6072,7 @@
       <c r="AS1" s="10"/>
       <c r="AT1" s="10"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6120,7 +6120,7 @@
       <c r="AS2" s="10"/>
       <c r="AT2" s="10"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -6168,7 +6168,7 @@
       <c r="AS3" s="10"/>
       <c r="AT3" s="10"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -6216,7 +6216,7 @@
       <c r="AS4" s="10"/>
       <c r="AT4" s="10"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -6264,7 +6264,7 @@
       <c r="AS5" s="10"/>
       <c r="AT5" s="10"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -6312,7 +6312,7 @@
       <c r="AS6" s="10"/>
       <c r="AT6" s="10"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6360,7 +6360,7 @@
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6408,7 +6408,7 @@
       <c r="AS8" s="10"/>
       <c r="AT8" s="10"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6456,7 +6456,7 @@
       <c r="AS9" s="10"/>
       <c r="AT9" s="10"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -6504,7 +6504,7 @@
       <c r="AS10" s="10"/>
       <c r="AT10" s="10"/>
     </row>
-    <row r="11" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -6552,7 +6552,7 @@
       <c r="AS11" s="10"/>
       <c r="AT11" s="10"/>
     </row>
-    <row r="12" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -6623,7 +6623,7 @@
       <c r="AS12" s="10"/>
       <c r="AT12" s="10"/>
     </row>
-    <row r="13" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -6678,7 +6678,7 @@
       <c r="AS13" s="10"/>
       <c r="AT13" s="10"/>
     </row>
-    <row r="14" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>0</v>
       </c>
@@ -6760,7 +6760,7 @@
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
     </row>
-    <row r="15" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>0</v>
       </c>
@@ -6782,12 +6782,12 @@
       </c>
       <c r="V15" s="12"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="17" t="s">
+      <c r="X15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -6808,7 +6808,7 @@
       <c r="AS15" s="10"/>
       <c r="AT15" s="10"/>
     </row>
-    <row r="16" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>0</v>
       </c>
@@ -6884,7 +6884,7 @@
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
     </row>
-    <row r="17" spans="1:46" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -6936,7 +6936,7 @@
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -7000,7 +7000,7 @@
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -7045,7 +7045,7 @@
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -7090,7 +7090,7 @@
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -7138,7 +7138,7 @@
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -7186,7 +7186,7 @@
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -7234,7 +7234,7 @@
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -7282,7 +7282,7 @@
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -7330,7 +7330,7 @@
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -7378,7 +7378,7 @@
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -7426,7 +7426,7 @@
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -7474,7 +7474,7 @@
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -7522,7 +7522,7 @@
       <c r="AS29" s="10"/>
       <c r="AT29" s="10"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -7570,7 +7570,7 @@
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -7618,7 +7618,7 @@
       <c r="AS31" s="10"/>
       <c r="AT31" s="10"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -7666,7 +7666,7 @@
       <c r="AS32" s="10"/>
       <c r="AT32" s="10"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -7714,7 +7714,7 @@
       <c r="AS33" s="10"/>
       <c r="AT33" s="10"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -7762,7 +7762,7 @@
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -7810,7 +7810,7 @@
       <c r="AS35" s="10"/>
       <c r="AT35" s="10"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -7858,7 +7858,7 @@
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -7906,7 +7906,7 @@
       <c r="AS37" s="10"/>
       <c r="AT37" s="10"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -7954,7 +7954,7 @@
       <c r="AS38" s="10"/>
       <c r="AT38" s="10"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -8002,7 +8002,7 @@
       <c r="AS39" s="10"/>
       <c r="AT39" s="10"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -8050,7 +8050,7 @@
       <c r="AS40" s="10"/>
       <c r="AT40" s="10"/>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -8098,7 +8098,7 @@
       <c r="AS41" s="10"/>
       <c r="AT41" s="10"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8146,7 +8146,7 @@
       <c r="AS42" s="10"/>
       <c r="AT42" s="10"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8194,7 +8194,7 @@
       <c r="AS43" s="10"/>
       <c r="AT43" s="10"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8242,7 +8242,7 @@
       <c r="AS44" s="10"/>
       <c r="AT44" s="10"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8290,7 +8290,7 @@
       <c r="AS45" s="10"/>
       <c r="AT45" s="10"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -8338,7 +8338,7 @@
       <c r="AS46" s="10"/>
       <c r="AT46" s="10"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -8386,7 +8386,7 @@
       <c r="AS47" s="10"/>
       <c r="AT47" s="10"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
@@ -8434,7 +8434,7 @@
       <c r="AS48" s="10"/>
       <c r="AT48" s="10"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -8482,7 +8482,7 @@
       <c r="AS49" s="10"/>
       <c r="AT49" s="10"/>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -8530,7 +8530,7 @@
       <c r="AS50" s="10"/>
       <c r="AT50" s="10"/>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8578,7 +8578,7 @@
       <c r="AS51" s="10"/>
       <c r="AT51" s="10"/>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8626,7 +8626,7 @@
       <c r="AS52" s="10"/>
       <c r="AT52" s="10"/>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8674,7 +8674,7 @@
       <c r="AS53" s="10"/>
       <c r="AT53" s="10"/>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8722,7 +8722,7 @@
       <c r="AS54" s="10"/>
       <c r="AT54" s="10"/>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8770,7 +8770,7 @@
       <c r="AS55" s="10"/>
       <c r="AT55" s="10"/>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -8818,7 +8818,7 @@
       <c r="AS56" s="10"/>
       <c r="AT56" s="10"/>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
@@ -8866,7 +8866,7 @@
       <c r="AS57" s="10"/>
       <c r="AT57" s="10"/>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -8914,7 +8914,7 @@
       <c r="AS58" s="10"/>
       <c r="AT58" s="10"/>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -8962,7 +8962,7 @@
       <c r="AS59" s="10"/>
       <c r="AT59" s="10"/>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -9010,7 +9010,7 @@
       <c r="AS60" s="10"/>
       <c r="AT60" s="10"/>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -9058,7 +9058,7 @@
       <c r="AS61" s="10"/>
       <c r="AT61" s="10"/>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -9106,7 +9106,7 @@
       <c r="AS62" s="10"/>
       <c r="AT62" s="10"/>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -9154,7 +9154,7 @@
       <c r="AS63" s="10"/>
       <c r="AT63" s="10"/>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -9202,7 +9202,7 @@
       <c r="AS64" s="10"/>
       <c r="AT64" s="10"/>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -9250,7 +9250,7 @@
       <c r="AS65" s="10"/>
       <c r="AT65" s="10"/>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
@@ -9298,7 +9298,7 @@
       <c r="AS66" s="10"/>
       <c r="AT66" s="10"/>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
@@ -9346,7 +9346,7 @@
       <c r="AS67" s="10"/>
       <c r="AT67" s="10"/>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -9394,7 +9394,7 @@
       <c r="AS68" s="10"/>
       <c r="AT68" s="10"/>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -9442,7 +9442,7 @@
       <c r="AS69" s="10"/>
       <c r="AT69" s="10"/>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -9490,7 +9490,7 @@
       <c r="AS70" s="10"/>
       <c r="AT70" s="10"/>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -9538,7 +9538,7 @@
       <c r="AS71" s="10"/>
       <c r="AT71" s="10"/>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -9586,7 +9586,7 @@
       <c r="AS72" s="10"/>
       <c r="AT72" s="10"/>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -9634,7 +9634,7 @@
       <c r="AS73" s="10"/>
       <c r="AT73" s="10"/>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -9682,7 +9682,7 @@
       <c r="AS74" s="10"/>
       <c r="AT74" s="10"/>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -9730,7 +9730,7 @@
       <c r="AS75" s="10"/>
       <c r="AT75" s="10"/>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -9778,7 +9778,7 @@
       <c r="AS76" s="10"/>
       <c r="AT76" s="10"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -9826,7 +9826,7 @@
       <c r="AS77" s="10"/>
       <c r="AT77" s="10"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -9874,7 +9874,7 @@
       <c r="AS78" s="10"/>
       <c r="AT78" s="10"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -9922,7 +9922,7 @@
       <c r="AS79" s="10"/>
       <c r="AT79" s="10"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -9970,7 +9970,7 @@
       <c r="AS80" s="10"/>
       <c r="AT80" s="10"/>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -10018,7 +10018,7 @@
       <c r="AS81" s="10"/>
       <c r="AT81" s="10"/>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -10066,7 +10066,7 @@
       <c r="AS82" s="10"/>
       <c r="AT82" s="10"/>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -10114,7 +10114,7 @@
       <c r="AS83" s="10"/>
       <c r="AT83" s="10"/>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
@@ -10162,7 +10162,7 @@
       <c r="AS84" s="10"/>
       <c r="AT84" s="10"/>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
@@ -10210,7 +10210,7 @@
       <c r="AS85" s="10"/>
       <c r="AT85" s="10"/>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -10258,7 +10258,7 @@
       <c r="AS86" s="10"/>
       <c r="AT86" s="10"/>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -10306,7 +10306,7 @@
       <c r="AS87" s="10"/>
       <c r="AT87" s="10"/>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -10354,7 +10354,7 @@
       <c r="AS88" s="10"/>
       <c r="AT88" s="10"/>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -10402,7 +10402,7 @@
       <c r="AS89" s="10"/>
       <c r="AT89" s="10"/>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -10450,7 +10450,7 @@
       <c r="AS90" s="10"/>
       <c r="AT90" s="10"/>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -10498,7 +10498,7 @@
       <c r="AS91" s="10"/>
       <c r="AT91" s="10"/>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -10546,7 +10546,7 @@
       <c r="AS92" s="10"/>
       <c r="AT92" s="10"/>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
@@ -10594,7 +10594,7 @@
       <c r="AS93" s="10"/>
       <c r="AT93" s="10"/>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
@@ -10642,7 +10642,7 @@
       <c r="AS94" s="10"/>
       <c r="AT94" s="10"/>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -10690,7 +10690,7 @@
       <c r="AS95" s="10"/>
       <c r="AT95" s="10"/>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -10738,7 +10738,7 @@
       <c r="AS96" s="10"/>
       <c r="AT96" s="10"/>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -10786,7 +10786,7 @@
       <c r="AS97" s="10"/>
       <c r="AT97" s="10"/>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -10834,7 +10834,7 @@
       <c r="AS98" s="10"/>
       <c r="AT98" s="10"/>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -10882,7 +10882,7 @@
       <c r="AS99" s="10"/>
       <c r="AT99" s="10"/>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -10930,7 +10930,7 @@
       <c r="AS100" s="10"/>
       <c r="AT100" s="10"/>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -10978,7 +10978,7 @@
       <c r="AS101" s="10"/>
       <c r="AT101" s="10"/>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -11026,7 +11026,7 @@
       <c r="AS102" s="10"/>
       <c r="AT102" s="10"/>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -11074,7 +11074,7 @@
       <c r="AS103" s="10"/>
       <c r="AT103" s="10"/>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -11122,7 +11122,7 @@
       <c r="AS104" s="10"/>
       <c r="AT104" s="10"/>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -11170,7 +11170,7 @@
       <c r="AS105" s="10"/>
       <c r="AT105" s="10"/>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -11218,7 +11218,7 @@
       <c r="AS106" s="10"/>
       <c r="AT106" s="10"/>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -11266,7 +11266,7 @@
       <c r="AS107" s="10"/>
       <c r="AT107" s="10"/>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -11314,7 +11314,7 @@
       <c r="AS108" s="10"/>
       <c r="AT108" s="10"/>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -11362,7 +11362,7 @@
       <c r="AS109" s="10"/>
       <c r="AT109" s="10"/>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -11410,7 +11410,7 @@
       <c r="AS110" s="10"/>
       <c r="AT110" s="10"/>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -11458,7 +11458,7 @@
       <c r="AS111" s="10"/>
       <c r="AT111" s="10"/>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -11506,7 +11506,7 @@
       <c r="AS112" s="10"/>
       <c r="AT112" s="10"/>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -11554,7 +11554,7 @@
       <c r="AS113" s="10"/>
       <c r="AT113" s="10"/>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -11602,7 +11602,7 @@
       <c r="AS114" s="10"/>
       <c r="AT114" s="10"/>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -11650,7 +11650,7 @@
       <c r="AS115" s="10"/>
       <c r="AT115" s="10"/>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -11698,7 +11698,7 @@
       <c r="AS116" s="10"/>
       <c r="AT116" s="10"/>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -11746,7 +11746,7 @@
       <c r="AS117" s="10"/>
       <c r="AT117" s="10"/>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -11794,7 +11794,7 @@
       <c r="AS118" s="10"/>
       <c r="AT118" s="10"/>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -11842,7 +11842,7 @@
       <c r="AS119" s="10"/>
       <c r="AT119" s="10"/>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -11890,7 +11890,7 @@
       <c r="AS120" s="10"/>
       <c r="AT120" s="10"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -11938,7 +11938,7 @@
       <c r="AS121" s="10"/>
       <c r="AT121" s="10"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -11986,7 +11986,7 @@
       <c r="AS122" s="10"/>
       <c r="AT122" s="10"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -12034,7 +12034,7 @@
       <c r="AS123" s="10"/>
       <c r="AT123" s="10"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -12082,7 +12082,7 @@
       <c r="AS124" s="10"/>
       <c r="AT124" s="10"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -12130,7 +12130,7 @@
       <c r="AS125" s="10"/>
       <c r="AT125" s="10"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -12178,7 +12178,7 @@
       <c r="AS126" s="10"/>
       <c r="AT126" s="10"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -12226,7 +12226,7 @@
       <c r="AS127" s="10"/>
       <c r="AT127" s="10"/>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -12274,7 +12274,7 @@
       <c r="AS128" s="10"/>
       <c r="AT128" s="10"/>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -12322,7 +12322,7 @@
       <c r="AS129" s="10"/>
       <c r="AT129" s="10"/>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -12370,7 +12370,7 @@
       <c r="AS130" s="10"/>
       <c r="AT130" s="10"/>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -12418,7 +12418,7 @@
       <c r="AS131" s="10"/>
       <c r="AT131" s="10"/>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -12466,7 +12466,7 @@
       <c r="AS132" s="10"/>
       <c r="AT132" s="10"/>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -12514,7 +12514,7 @@
       <c r="AS133" s="10"/>
       <c r="AT133" s="10"/>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -12562,7 +12562,7 @@
       <c r="AS134" s="10"/>
       <c r="AT134" s="10"/>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -12610,7 +12610,7 @@
       <c r="AS135" s="10"/>
       <c r="AT135" s="10"/>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -12658,7 +12658,7 @@
       <c r="AS136" s="10"/>
       <c r="AT136" s="10"/>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -12706,7 +12706,7 @@
       <c r="AS137" s="10"/>
       <c r="AT137" s="10"/>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -12754,7 +12754,7 @@
       <c r="AS138" s="10"/>
       <c r="AT138" s="10"/>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -12802,7 +12802,7 @@
       <c r="AS139" s="10"/>
       <c r="AT139" s="10"/>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -12850,7 +12850,7 @@
       <c r="AS140" s="10"/>
       <c r="AT140" s="10"/>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -12898,7 +12898,7 @@
       <c r="AS141" s="10"/>
       <c r="AT141" s="10"/>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -12946,7 +12946,7 @@
       <c r="AS142" s="10"/>
       <c r="AT142" s="10"/>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -12994,7 +12994,7 @@
       <c r="AS143" s="10"/>
       <c r="AT143" s="10"/>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -13042,7 +13042,7 @@
       <c r="AS144" s="10"/>
       <c r="AT144" s="10"/>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -13090,7 +13090,7 @@
       <c r="AS145" s="10"/>
       <c r="AT145" s="10"/>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -13138,7 +13138,7 @@
       <c r="AS146" s="10"/>
       <c r="AT146" s="10"/>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -13186,7 +13186,7 @@
       <c r="AS147" s="10"/>
       <c r="AT147" s="10"/>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -13234,7 +13234,7 @@
       <c r="AS148" s="10"/>
       <c r="AT148" s="10"/>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -13282,7 +13282,7 @@
       <c r="AS149" s="10"/>
       <c r="AT149" s="10"/>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -13330,7 +13330,7 @@
       <c r="AS150" s="10"/>
       <c r="AT150" s="10"/>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -13378,7 +13378,7 @@
       <c r="AS151" s="10"/>
       <c r="AT151" s="10"/>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -13426,7 +13426,7 @@
       <c r="AS152" s="10"/>
       <c r="AT152" s="10"/>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -13474,7 +13474,7 @@
       <c r="AS153" s="10"/>
       <c r="AT153" s="10"/>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -13522,7 +13522,7 @@
       <c r="AS154" s="10"/>
       <c r="AT154" s="10"/>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -13570,7 +13570,7 @@
       <c r="AS155" s="10"/>
       <c r="AT155" s="10"/>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -13618,7 +13618,7 @@
       <c r="AS156" s="10"/>
       <c r="AT156" s="10"/>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -13666,7 +13666,7 @@
       <c r="AS157" s="10"/>
       <c r="AT157" s="10"/>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -13714,7 +13714,7 @@
       <c r="AS158" s="10"/>
       <c r="AT158" s="10"/>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -13762,7 +13762,7 @@
       <c r="AS159" s="10"/>
       <c r="AT159" s="10"/>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -13810,7 +13810,7 @@
       <c r="AS160" s="10"/>
       <c r="AT160" s="10"/>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -13858,7 +13858,7 @@
       <c r="AS161" s="10"/>
       <c r="AT161" s="10"/>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -13906,7 +13906,7 @@
       <c r="AS162" s="10"/>
       <c r="AT162" s="10"/>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -13954,7 +13954,7 @@
       <c r="AS163" s="10"/>
       <c r="AT163" s="10"/>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -14002,7 +14002,7 @@
       <c r="AS164" s="10"/>
       <c r="AT164" s="10"/>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -14050,7 +14050,7 @@
       <c r="AS165" s="10"/>
       <c r="AT165" s="10"/>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -14098,7 +14098,7 @@
       <c r="AS166" s="10"/>
       <c r="AT166" s="10"/>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -14146,7 +14146,7 @@
       <c r="AS167" s="10"/>
       <c r="AT167" s="10"/>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -14194,7 +14194,7 @@
       <c r="AS168" s="10"/>
       <c r="AT168" s="10"/>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -14242,7 +14242,7 @@
       <c r="AS169" s="10"/>
       <c r="AT169" s="10"/>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -14290,7 +14290,7 @@
       <c r="AS170" s="10"/>
       <c r="AT170" s="10"/>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -14338,7 +14338,7 @@
       <c r="AS171" s="10"/>
       <c r="AT171" s="10"/>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -14386,7 +14386,7 @@
       <c r="AS172" s="10"/>
       <c r="AT172" s="10"/>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -14434,7 +14434,7 @@
       <c r="AS173" s="10"/>
       <c r="AT173" s="10"/>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -14482,7 +14482,7 @@
       <c r="AS174" s="10"/>
       <c r="AT174" s="10"/>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -14530,7 +14530,7 @@
       <c r="AS175" s="10"/>
       <c r="AT175" s="10"/>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -14578,7 +14578,7 @@
       <c r="AS176" s="10"/>
       <c r="AT176" s="10"/>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -14626,7 +14626,7 @@
       <c r="AS177" s="10"/>
       <c r="AT177" s="10"/>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -14674,7 +14674,7 @@
       <c r="AS178" s="10"/>
       <c r="AT178" s="10"/>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -14722,7 +14722,7 @@
       <c r="AS179" s="10"/>
       <c r="AT179" s="10"/>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -14770,7 +14770,7 @@
       <c r="AS180" s="10"/>
       <c r="AT180" s="10"/>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -14818,7 +14818,7 @@
       <c r="AS181" s="10"/>
       <c r="AT181" s="10"/>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -14866,7 +14866,7 @@
       <c r="AS182" s="10"/>
       <c r="AT182" s="10"/>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -14914,7 +14914,7 @@
       <c r="AS183" s="10"/>
       <c r="AT183" s="10"/>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -14962,7 +14962,7 @@
       <c r="AS184" s="10"/>
       <c r="AT184" s="10"/>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -15010,7 +15010,7 @@
       <c r="AS185" s="10"/>
       <c r="AT185" s="10"/>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -15058,7 +15058,7 @@
       <c r="AS186" s="10"/>
       <c r="AT186" s="10"/>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -15106,7 +15106,7 @@
       <c r="AS187" s="10"/>
       <c r="AT187" s="10"/>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -15154,7 +15154,7 @@
       <c r="AS188" s="10"/>
       <c r="AT188" s="10"/>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -15202,7 +15202,7 @@
       <c r="AS189" s="10"/>
       <c r="AT189" s="10"/>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -15250,7 +15250,7 @@
       <c r="AS190" s="10"/>
       <c r="AT190" s="10"/>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -15298,7 +15298,7 @@
       <c r="AS191" s="10"/>
       <c r="AT191" s="10"/>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -15346,7 +15346,7 @@
       <c r="AS192" s="10"/>
       <c r="AT192" s="10"/>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -15394,7 +15394,7 @@
       <c r="AS193" s="10"/>
       <c r="AT193" s="10"/>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -15442,7 +15442,7 @@
       <c r="AS194" s="10"/>
       <c r="AT194" s="10"/>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -15490,7 +15490,7 @@
       <c r="AS195" s="10"/>
       <c r="AT195" s="10"/>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -15538,7 +15538,7 @@
       <c r="AS196" s="10"/>
       <c r="AT196" s="10"/>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -15586,7 +15586,7 @@
       <c r="AS197" s="10"/>
       <c r="AT197" s="10"/>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -15634,7 +15634,7 @@
       <c r="AS198" s="10"/>
       <c r="AT198" s="10"/>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -15682,7 +15682,7 @@
       <c r="AS199" s="10"/>
       <c r="AT199" s="10"/>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -15730,7 +15730,7 @@
       <c r="AS200" s="10"/>
       <c r="AT200" s="10"/>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -15778,7 +15778,7 @@
       <c r="AS201" s="10"/>
       <c r="AT201" s="10"/>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -15826,7 +15826,7 @@
       <c r="AS202" s="10"/>
       <c r="AT202" s="10"/>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -15874,7 +15874,7 @@
       <c r="AS203" s="10"/>
       <c r="AT203" s="10"/>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -15922,7 +15922,7 @@
       <c r="AS204" s="10"/>
       <c r="AT204" s="10"/>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -15970,7 +15970,7 @@
       <c r="AS205" s="10"/>
       <c r="AT205" s="10"/>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -16018,7 +16018,7 @@
       <c r="AS206" s="10"/>
       <c r="AT206" s="10"/>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -16066,7 +16066,7 @@
       <c r="AS207" s="10"/>
       <c r="AT207" s="10"/>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -16114,7 +16114,7 @@
       <c r="AS208" s="10"/>
       <c r="AT208" s="10"/>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -16162,7 +16162,7 @@
       <c r="AS209" s="10"/>
       <c r="AT209" s="10"/>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -16210,7 +16210,7 @@
       <c r="AS210" s="10"/>
       <c r="AT210" s="10"/>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -16258,7 +16258,7 @@
       <c r="AS211" s="10"/>
       <c r="AT211" s="10"/>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -16306,7 +16306,7 @@
       <c r="AS212" s="10"/>
       <c r="AT212" s="10"/>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -16354,7 +16354,7 @@
       <c r="AS213" s="10"/>
       <c r="AT213" s="10"/>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -16402,7 +16402,7 @@
       <c r="AS214" s="10"/>
       <c r="AT214" s="10"/>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -16450,7 +16450,7 @@
       <c r="AS215" s="10"/>
       <c r="AT215" s="10"/>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -16498,7 +16498,7 @@
       <c r="AS216" s="10"/>
       <c r="AT216" s="10"/>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -16546,7 +16546,7 @@
       <c r="AS217" s="10"/>
       <c r="AT217" s="10"/>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -16594,7 +16594,7 @@
       <c r="AS218" s="10"/>
       <c r="AT218" s="10"/>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -16642,7 +16642,7 @@
       <c r="AS219" s="10"/>
       <c r="AT219" s="10"/>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -16690,7 +16690,7 @@
       <c r="AS220" s="10"/>
       <c r="AT220" s="10"/>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -16738,7 +16738,7 @@
       <c r="AS221" s="10"/>
       <c r="AT221" s="10"/>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -16786,7 +16786,7 @@
       <c r="AS222" s="10"/>
       <c r="AT222" s="10"/>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -16834,7 +16834,7 @@
       <c r="AS223" s="10"/>
       <c r="AT223" s="10"/>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -16882,7 +16882,7 @@
       <c r="AS224" s="10"/>
       <c r="AT224" s="10"/>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -16930,7 +16930,7 @@
       <c r="AS225" s="10"/>
       <c r="AT225" s="10"/>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -16978,7 +16978,7 @@
       <c r="AS226" s="10"/>
       <c r="AT226" s="10"/>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -17026,7 +17026,7 @@
       <c r="AS227" s="10"/>
       <c r="AT227" s="10"/>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -17074,7 +17074,7 @@
       <c r="AS228" s="10"/>
       <c r="AT228" s="10"/>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -17122,7 +17122,7 @@
       <c r="AS229" s="10"/>
       <c r="AT229" s="10"/>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -17170,7 +17170,7 @@
       <c r="AS230" s="10"/>
       <c r="AT230" s="10"/>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -17218,7 +17218,7 @@
       <c r="AS231" s="10"/>
       <c r="AT231" s="10"/>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -17266,7 +17266,7 @@
       <c r="AS232" s="10"/>
       <c r="AT232" s="10"/>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -17314,7 +17314,7 @@
       <c r="AS233" s="10"/>
       <c r="AT233" s="10"/>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -17362,7 +17362,7 @@
       <c r="AS234" s="10"/>
       <c r="AT234" s="10"/>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -17410,7 +17410,7 @@
       <c r="AS235" s="10"/>
       <c r="AT235" s="10"/>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -17458,7 +17458,7 @@
       <c r="AS236" s="10"/>
       <c r="AT236" s="10"/>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -17506,7 +17506,7 @@
       <c r="AS237" s="10"/>
       <c r="AT237" s="10"/>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -17554,7 +17554,7 @@
       <c r="AS238" s="10"/>
       <c r="AT238" s="10"/>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -17619,7 +17619,7 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17634,7 +17634,7 @@
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/ADP/AEN.xlsx
+++ b/ADP/AEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicol\Desktop\UAI-2024\ADP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E932599-5C08-4907-8D8D-3C31C39A7C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D0EECD-0FDF-4E4E-8922-1CBE4B75A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ej2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="17">
   <si>
     <t>A</t>
   </si>
@@ -71,13 +71,19 @@
     <t>INICIO</t>
   </si>
   <si>
-    <t>Duración total del proyecto = 23 Semandas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se necesitan 19 semanas </t>
   </si>
   <si>
     <t>Duda: SI A es predecesora de B y C entonces no le pongo flecha de A a D? ya que D es fusion de B y C</t>
+  </si>
+  <si>
+    <t>explosiva</t>
+  </si>
+  <si>
+    <t>fusión</t>
+  </si>
+  <si>
+    <t>Duración total del proyecto = 23 Semanas</t>
   </si>
 </sst>
 </file>
@@ -598,13 +604,13 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>504264</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -618,9 +624,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11715750" y="1562100"/>
-          <a:ext cx="371475" cy="28575"/>
+        <a:xfrm>
+          <a:off x="10949268" y="1686205"/>
+          <a:ext cx="447114" cy="5883"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3388,16 +3394,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>220701</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19810</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>312965</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>90674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3420,8 +3426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12192000" y="4214813"/>
-          <a:ext cx="11650701" cy="5449060"/>
+          <a:off x="7198179" y="4313465"/>
+          <a:ext cx="7592786" cy="3737388"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3438,15 +3444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3460,9 +3466,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4643438" y="1676400"/>
-          <a:ext cx="476250" cy="180975"/>
+        <a:xfrm>
+          <a:off x="4681538" y="2405062"/>
+          <a:ext cx="490537" cy="204788"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3491,15 +3497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3513,9 +3519,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4705350" y="2119313"/>
-          <a:ext cx="438150" cy="200025"/>
+        <a:xfrm flipV="1">
+          <a:off x="4667250" y="1866900"/>
+          <a:ext cx="390525" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3873,16 +3879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>414338</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>107778</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>471489</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>563609</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>48509</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>45181</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3905,8 +3911,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="414338" y="3046241"/>
-          <a:ext cx="6245271" cy="3379256"/>
+          <a:off x="8853489" y="2993854"/>
+          <a:ext cx="6005512" cy="3423552"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3922,16 +3928,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>695255</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114676</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>720775</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>987</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596949</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3954,8 +3960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695255" y="4210051"/>
-          <a:ext cx="6883520" cy="4149124"/>
+          <a:off x="4686676" y="3929063"/>
+          <a:ext cx="5816273" cy="3690937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4930,8 +4936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5013,7 @@
     </row>
     <row r="13" spans="4:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="4:22" x14ac:dyDescent="0.25">
@@ -5170,10 +5176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F68DDE-1392-4F3C-A1A3-BB3C1EBC72D4}">
-  <dimension ref="D6:Z21"/>
+  <dimension ref="D6:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5332,10 +5338,19 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
       <c r="R21" s="9"/>
+      <c r="W21" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="8:26" x14ac:dyDescent="0.25">
+      <c r="O22" s="15" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5343,7 +5358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4DD3E7-30B9-4E5F-B741-7DF7B0749A05}">
   <dimension ref="C8:Y20"/>
   <sheetViews>
-    <sheetView topLeftCell="I18" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -5494,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26771468-A9A7-4798-950E-ACCA4E8000CD}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -5670,8 +5685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA8CA9A-F267-45AE-AD55-52FD13192E53}">
   <dimension ref="D6:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5785,7 +5800,7 @@
       <c r="U10" s="12"/>
       <c r="V10" s="13"/>
       <c r="W10" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X10" s="17"/>
       <c r="Y10" s="17"/>
@@ -6018,8 +6033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CBB30B-0F04-45BD-8B69-F4CF7952B9AC}">
   <dimension ref="A1:AT239"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6783,7 +6798,7 @@
       <c r="V15" s="12"/>
       <c r="W15" s="13"/>
       <c r="X15" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
@@ -17615,7 +17630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E25D0-FAA8-429E-9A73-4938CB5D23F0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -17630,7 +17645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC6E64A-787D-44D4-B5C5-F22298FE0602}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
